--- a/DATA/Vocabularies/grievances.xlsx
+++ b/DATA/Vocabularies/grievances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Phrases</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Conditional Phrases</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -459,6 +464,7 @@
           <t>Capitalism, neoliberalism, privatisation, privatise</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -474,6 +480,7 @@
           <t>Abuse, against xenophobia,</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -489,6 +496,7 @@
           <t>poverty, unemployment, jobs,</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -504,6 +512,7 @@
           <t>contracts expire, project end, completed</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -519,6 +528,7 @@
           <t>their rights, recognition,</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -534,6 +544,7 @@
           <t>destroyed, evicted, demolished, relocated, removal</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -546,7 +557,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(School or university or students) AND (fees, costs, teacher, permission, results, policy, allowed, shortage, not used, closed, residence)</t>
+          <t>School, university, students</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>fees, costs, teacher, permission, results, policy, allowed, shortage, not used, closed, residence</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Election AND ( (outcome, result, winner ) OR ( unfair, cheat, wrong, councillor ) )</t>
+          <t>Election</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">outcome, result, winner, unfair, cheat, wrong, councillor  </t>
         </is>
       </c>
     </row>
@@ -576,7 +597,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(Electricity OR Power OR connections ) and cost, price, supply, cut, disconnect</t>
+          <t>Electricity, Power, connections</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> cost, price, supply, cut, disconnect</t>
         </is>
       </c>
     </row>
@@ -591,7 +617,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(Work(ers) OR Company OR Employ(er) OR Labour OR Industrial OR Bosses OR strike OR management OR ?) AND (corrupt, fired, dismissed, policy, other people, hours, overtime, equipment, tools, salary, wages, cheque, food, water, transport, housing, accommodation, health, safety, living conditions, management, race, racism, racist, discrimination, subsidy, allowance, training, white, promotion, working conditions, increase, ?</t>
+          <t>Work, workers, Company, Employ, employer, employee, Labour, Industrial, Bosses, strike, management</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>corrupt, fired, dismissed, policy, other people, hours, overtime, equipment, tools, salary, wages, cheque, food, water, transport, housing, accommodation, health, safety, living conditions, management, race, racism, racist, discrimination, subsidy, allowance, training, white, promotion, working conditions, increase, unfair, poor, injustice, unjust</t>
         </is>
       </c>
     </row>
@@ -609,6 +640,7 @@
           <t>Foreigners, somali, Zimbabwe, xenophobic/a,</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -624,6 +656,7 @@
           <t>healthcare, nurses, hospital, clinic, doctors</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -639,6 +672,7 @@
           <t>Housing, land, stands,</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -654,6 +688,7 @@
           <t>Embassy, solidarily with the people of, war, the situation in,</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -666,7 +701,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>intimidate AND (suspect OR criminal)</t>
+          <t>intimidate</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>suspect, criminal</t>
         </is>
       </c>
     </row>
@@ -681,7 +721,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Court AND (attend, solidarity, gather, demonstrate, crowd, angry, support, ?)</t>
+          <t>Court</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> attend, solidarity, gather, demonstrate, crowd, angry, support</t>
         </is>
       </c>
     </row>
@@ -696,9 +741,10 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Labour broker(s)</t>
-        </is>
-      </c>
+          <t>Labour broker, labour brokers</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -711,9 +757,10 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Licence(s), permit(s)</t>
-        </is>
-      </c>
+          <t>Licence, permit, permits, licenses</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -726,9 +773,10 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mining, pollution, dirty, air, noise, cracking, cracked</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Mining, pollution, dirty, air, noise, cracking, cracked, fracking </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -744,6 +792,7 @@
           <t>Not arrive, not come, failed to arrive, failed to come, not respond, not answer</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -756,7 +805,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Municipality and (Bills, billing, rates, council tax, corrupt(ion), illegal, council(lor), mayor, failed, waited, long time, years, consultation, feedback, information, old councillor, reinstate(d), reappointed, put back, toilets, sanitation, pipes, water</t>
+          <t>Municipality</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Bills, billing, rates, council tax, corrupt, corruption, illegal, council, councillor, mayor, failed, waited, long time, years, consultation, feedback, information, old councillor, reinstated, reinstate, reappointed, put back, toilets, sanitation, pipes, water</t>
         </is>
       </c>
     </row>
@@ -774,6 +828,7 @@
           <t>Government, National</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -789,6 +844,7 @@
           <t>Inspectors, expired</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -804,6 +860,7 @@
           <t>Library</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -816,7 +873,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>(Police OR SAPS) AND (crime, policing, incident, drugs, gangs, arrests, suspects, wrongful, violence)</t>
+          <t>Police, SAPS</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>crime, policing, incident, drugs, gangs, arrests, suspects, wrongful, violence</t>
         </is>
       </c>
     </row>
@@ -834,6 +896,7 @@
           <t>Disaster, flood, collapse, tornado, storm,</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -846,9 +909,10 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> water, poor roads, quality of (the) roads,</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> water, poor roads, quality of roads, quality of the roads,  quality roads</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -864,6 +928,7 @@
           <t xml:space="preserve"> service delivery</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -879,6 +944,7 @@
           <t xml:space="preserve"> New law, legislation, proposed</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -894,6 +960,7 @@
           <t xml:space="preserve"> to be part of, incorporated, demarcation, located, boundary</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -906,9 +973,10 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Premier, ?</t>
-        </is>
-      </c>
+          <t>Premier,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -924,6 +992,7 @@
           <t xml:space="preserve"> grant</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -936,7 +1005,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Tribal court OR imbizo OR Kgotla OR chief OR kgosi OR induna) AND (problem, dispute, challenge, fight, protest, gather, demonstrate)</t>
+          <t xml:space="preserve"> Tribal court, imbizo, Kgotla, chief, kgosi, induna</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>problem, dispute, challenge, fight, protest, gather, demonstrate</t>
         </is>
       </c>
     </row>
@@ -951,7 +1025,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>(Ratepayers, taxpayers, association) AND NOT taxi</t>
+          <t>Ratepayers, taxpayers, association</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>%NOT% taxi</t>
         </is>
       </c>
     </row>
@@ -969,6 +1048,7 @@
           <t>Witchcraft, from the dead, muti</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -981,7 +1061,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>( Empowerment OR Rights) AND (female, women, woman)</t>
+          <t xml:space="preserve"> Empowerment, Rights</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>female, women, woman</t>
         </is>
       </c>
     </row>

--- a/DATA/Vocabularies/grievances.xlsx
+++ b/DATA/Vocabularies/grievances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Conditional Phrases</t>
+          <t>Conditional_Phrases</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_phrases</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_conditional_phrases</t>
         </is>
       </c>
     </row>
@@ -461,10 +471,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Capitalism, neoliberalism, privatisation, privatise</t>
+          <t>['Capitalism', ' neoliberalism', ' privatisation', ' privatise']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['capitalism', 'neoliberalism', 'privatisation', 'privatise']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['capitalism', 'neoliberalism', 'privatisation', 'privatise']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -477,10 +497,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Abuse, against xenophobia,</t>
+          <t>['Abuse', ' against xenophobia', '']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['abuse', 'xenophobia']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['abuse', 'xenophobia']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -493,10 +523,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>poverty, unemployment, jobs,</t>
+          <t>['poverty', ' unemployment', ' jobs', '']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['poverty', 'unemployment', 'job']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['poverty', 'unemployment', 'job']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -509,10 +549,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contracts expire, project end, completed</t>
+          <t>['contracts expire', ' project end', ' completed']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['contract', 'expire', 'project', 'end', 'complete']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['contract', 'expire', 'project', 'end', 'complete']</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -525,10 +575,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>their rights, recognition,</t>
+          <t>['their rights', ' recognition', '']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['right', 'recognition']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['right', 'recognition']</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -541,10 +601,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>destroyed, evicted, demolished, relocated, removal</t>
+          <t>['destroyed', ' evicted', ' demolished', ' relocated', ' removal']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['destroy', 'evict', 'demolished', 'relocated', 'removal']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['destroy', 'evict', 'demolished', 'relocated', 'removal']</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -557,12 +627,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>School, university, students</t>
+          <t>['School', ' university', ' students']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>fees, costs, teacher, permission, results, policy, allowed, shortage, not used, closed, residence</t>
+          <t>['fees', ' costs', ' teacher', ' permission', ' results', ' policy', ' allowed', ' shortage', ' not used', ' closed', ' residence']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['school', 'university', 'student']</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['school', 'university', 'student']</t>
         </is>
       </c>
     </row>
@@ -577,12 +657,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Election</t>
+          <t>['Election']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">outcome, result, winner, unfair, cheat, wrong, councillor  </t>
+          <t>['outcome', ' result', ' winner', ' unfair', ' cheat', ' wrong', ' councillor  ']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['election']</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['election']</t>
         </is>
       </c>
     </row>
@@ -597,12 +687,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Electricity, Power, connections</t>
+          <t>['Electricity', ' Power', ' connections']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> cost, price, supply, cut, disconnect</t>
+          <t>[' cost', ' price', ' supply', ' cut', ' disconnect']</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['electricity', 'power', 'connection']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['electricity', 'power', 'connection']</t>
         </is>
       </c>
     </row>
@@ -617,12 +717,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Work, workers, Company, Employ, employer, employee, Labour, Industrial, Bosses, strike, management</t>
+          <t>['Work', ' workers', ' Company', ' Employ', ' employer', ' employee', ' Labour', ' Industrial', ' Bosses', ' strike', ' management']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>corrupt, fired, dismissed, policy, other people, hours, overtime, equipment, tools, salary, wages, cheque, food, water, transport, housing, accommodation, health, safety, living conditions, management, race, racism, racist, discrimination, subsidy, allowance, training, white, promotion, working conditions, increase, unfair, poor, injustice, unjust</t>
+          <t>['corrupt', ' fired', ' dismissed', ' policy', ' other people', ' hours', ' overtime', ' equipment', ' tools', ' salary', ' wages', ' cheque', ' food', ' water', ' transport', ' housing', ' accommodation', ' health', ' safety', ' living conditions', ' management', ' race', ' racism', ' racist', ' discrimination', ' subsidy', ' allowance', ' training', ' white', ' promotion', ' working conditions', ' increase', ' unfair', ' poor', ' injustice', ' unjust']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['work', 'worker', 'company', 'employ', 'employer', 'employee', 'labour', 'industrial', 'boss', 'strike', 'management']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['work', 'worker', 'company', 'employ', 'employer', 'employee', 'labour', 'industrial', 'boss', 'strike', 'management']</t>
         </is>
       </c>
     </row>
@@ -637,10 +747,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Foreigners, somali, Zimbabwe, xenophobic/a,</t>
+          <t>['Foreigners', ' somali', ' Zimbabwe', ' xenophobic/a', '']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['foreigner', 'somali', 'zimbabwe', 'xenophobic/a']</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['foreigner', 'somali', 'zimbabwe', 'xenophobic/a']</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -653,10 +773,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>healthcare, nurses, hospital, clinic, doctors</t>
+          <t>['healthcare', ' nurses', ' hospital', ' clinic', ' doctors']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['healthcare', 'nurse', 'hospital', 'clinic', 'doctor']</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['healthcare', 'nurse', 'hospital', 'clinic', 'doctor']</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -669,10 +799,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Housing, land, stands,</t>
+          <t>['Housing', ' land', ' stands', '']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>['housing', 'land', 'stand']</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['housing', 'land', 'stand']</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -685,10 +825,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Embassy, solidarily with the people of, war, the situation in,</t>
+          <t>['Embassy', ' solidarily with the people of', ' war', ' the situation in', '']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>['embassy', 'solidarily', 'people', 'war', 'situation']</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['embassy', 'solidarily', 'people', 'war', 'situation']</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -701,12 +851,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>intimidate</t>
+          <t>['intimidate']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>suspect, criminal</t>
+          <t>['suspect', ' criminal']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['intimidate']</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['intimidate']</t>
         </is>
       </c>
     </row>
@@ -721,12 +881,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Court</t>
+          <t>['Court']</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> attend, solidarity, gather, demonstrate, crowd, angry, support</t>
+          <t>[' attend', ' solidarity', ' gather', ' demonstrate', ' crowd', ' angry', ' support']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['court']</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['court']</t>
         </is>
       </c>
     </row>
@@ -741,10 +911,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Labour broker, labour brokers</t>
+          <t>['Labour broker', ' labour brokers']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['labour', 'broker', 'labour', 'broker']</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['labour', 'broker', 'labour', 'broker']</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -757,10 +937,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Licence, permit, permits, licenses</t>
+          <t>['Licence', ' permit', ' permits', ' licenses']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['licence', 'permit', 'permit', 'license']</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['licence', 'permit', 'permit', 'license']</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -773,10 +963,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mining, pollution, dirty, air, noise, cracking, cracked, fracking </t>
+          <t>['Mining', ' pollution', ' dirty', ' air', ' noise', ' cracking', ' cracked', ' fracking ']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>['mine', 'pollution', 'dirty', 'air', 'noise', 'crack', 'crack', 'fracking']</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>['mine', 'pollution', 'dirty', 'air', 'noise', 'crack', 'crack', 'fracking']</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -789,10 +989,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Not arrive, not come, failed to arrive, failed to come, not respond, not answer</t>
+          <t>['Not arrive', ' not come', ' failed to arrive', ' failed to come', ' not respond', ' not answer']</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>['arrive', 'come', 'fail', 'arrive', 'fail', 'come', 'respond', 'answer']</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>['arrive', 'come', 'fail', 'arrive', 'fail', 'come', 'respond', 'answer']</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -805,12 +1015,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Municipality</t>
+          <t>['Municipality']</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Bills, billing, rates, council tax, corrupt, corruption, illegal, council, councillor, mayor, failed, waited, long time, years, consultation, feedback, information, old councillor, reinstated, reinstate, reappointed, put back, toilets, sanitation, pipes, water</t>
+          <t>['Bills', ' billing', ' rates', ' council tax', ' corrupt', ' corruption', ' illegal', ' council', ' councillor', ' mayor', ' failed', ' waited', ' long time', ' years', ' consultation', ' feedback', ' information', ' old councillor', ' reinstated', ' reinstate', ' reappointed', ' put back', ' toilets', ' sanitation', ' pipes', ' water']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>['municipality']</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>['municipality']</t>
         </is>
       </c>
     </row>
@@ -825,10 +1045,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Government, National</t>
+          <t>['Government', ' National']</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>['government', 'national']</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>['government', 'national']</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -841,10 +1071,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Inspectors, expired</t>
+          <t>['Inspectors', ' expired']</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>['inspector', 'expire']</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>['inspector', 'expire']</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -857,10 +1097,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Library</t>
+          <t>['Library']</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>['library']</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>['library']</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -873,12 +1123,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Police, SAPS</t>
+          <t>['Police', ' SAPS']</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>crime, policing, incident, drugs, gangs, arrests, suspects, wrongful, violence</t>
+          <t>['crime', ' policing', ' incident', ' drugs', ' gangs', ' arrests', ' suspects', ' wrongful', ' violence']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>['police', 'sap']</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>['police', 'sap']</t>
         </is>
       </c>
     </row>
@@ -893,10 +1153,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Disaster, flood, collapse, tornado, storm,</t>
+          <t>['Disaster', ' flood', ' collapse', ' tornado', ' storm', '']</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>['disaster', 'flood', 'collapse', 'tornado', 'storm']</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>['disaster', 'flood', 'collapse', 'tornado', 'storm']</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -909,10 +1179,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> water, poor roads, quality of roads, quality of the roads,  quality roads</t>
+          <t>[' water', ' poor roads', ' quality of roads', ' quality of the roads', '  quality roads']</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>['water', 'poor', 'road', 'quality', 'roads', 'quality', 'road', 'quality', 'road']</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>['water', 'poor', 'road', 'quality', 'roads', 'quality', 'road', 'quality', 'road']</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -925,10 +1205,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> service delivery</t>
+          <t>[' service delivery']</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>['service', 'delivery']</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>['service', 'delivery']</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -941,10 +1231,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New law, legislation, proposed</t>
+          <t>[' New law', ' legislation', ' proposed']</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>['new', 'law', 'legislation', 'propose']</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>['new', 'law', 'legislation', 'propose']</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -957,10 +1257,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> to be part of, incorporated, demarcation, located, boundary</t>
+          <t>[' to be part of', ' incorporated', ' demarcation', ' located', ' boundary']</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>['part', 'incorporate', 'demarcation', 'locate', 'boundary']</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>['part', 'incorporate', 'demarcation', 'locate', 'boundary']</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -973,10 +1283,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Premier,</t>
+          <t>['Premier', '']</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>['premier']</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>['premier']</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -989,10 +1309,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> grant</t>
+          <t>[' grant']</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>['grant']</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>['grant']</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1005,12 +1335,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tribal court, imbizo, Kgotla, chief, kgosi, induna</t>
+          <t>[' Tribal court', ' imbizo', ' Kgotla', ' chief', ' kgosi', ' induna']</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>problem, dispute, challenge, fight, protest, gather, demonstrate</t>
+          <t>['problem', ' dispute', ' challenge', ' fight', ' protest', ' gather', ' demonstrate']</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>['tribal', 'court', 'imbizo', 'kgotla', 'chief', 'kgosi', 'induna']</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>['tribal', 'court', 'imbizo', 'kgotla', 'chief', 'kgosi', 'induna']</t>
         </is>
       </c>
     </row>
@@ -1025,12 +1365,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ratepayers, taxpayers, association</t>
+          <t>['Ratepayers', ' taxpayers', ' association']</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>%NOT% taxi</t>
+          <t>['%NOT% taxi']</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>['ratepayer', 'taxpayer', 'association']</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>['ratepayer', 'taxpayer', 'association']</t>
         </is>
       </c>
     </row>
@@ -1045,10 +1395,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Witchcraft, from the dead, muti</t>
+          <t>['Witchcraft', ' from the dead', ' muti']</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>['witchcraft', 'dead', 'muti']</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>['witchcraft', 'dead', 'muti']</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1061,12 +1421,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Empowerment, Rights</t>
+          <t>[' Empowerment', ' Rights']</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>female, women, woman</t>
+          <t>['female', ' women', ' woman']</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>['empowerment', 'right']</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>['empowerment', 'right']</t>
         </is>
       </c>
     </row>

--- a/DATA/Vocabularies/grievances.xlsx
+++ b/DATA/Vocabularies/grievances.xlsx
@@ -480,11 +480,7 @@
           <t>['capitalism', 'neoliberalism', 'privatisation', 'privatise']</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>['capitalism', 'neoliberalism', 'privatisation', 'privatise']</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,11 +502,7 @@
           <t>['abuse', 'xenophobia']</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['abuse', 'xenophobia']</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,11 +524,7 @@
           <t>['poverty', 'unemployment', 'job']</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['poverty', 'unemployment', 'job']</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -558,11 +546,7 @@
           <t>['contract', 'expire', 'project', 'end', 'complete']</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['contract', 'expire', 'project', 'end', 'complete']</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -584,11 +568,7 @@
           <t>['right', 'recognition']</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['right', 'recognition']</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -610,11 +590,7 @@
           <t>['destroy', 'evict', 'demolished', 'relocated', 'removal']</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>['destroy', 'evict', 'demolished', 'relocated', 'removal']</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -642,7 +618,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['school', 'university', 'student']</t>
+          <t>['fee', 'cost', 'teacher', 'permission', 'result', 'policy', 'allow', 'shortage', 'use', 'close', 'residence']</t>
         </is>
       </c>
     </row>
@@ -672,7 +648,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['election']</t>
+          <t>['outcome', 'result', 'winner', 'unfair', 'cheat', 'wrong', 'councillor']</t>
         </is>
       </c>
     </row>
@@ -702,7 +678,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['electricity', 'power', 'connection']</t>
+          <t>['cost', 'price', 'supply', 'cut', 'disconnect']</t>
         </is>
       </c>
     </row>
@@ -732,7 +708,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['work', 'worker', 'company', 'employ', 'employer', 'employee', 'labour', 'industrial', 'boss', 'strike', 'management']</t>
+          <t>['corrupt', 'fire', 'dismissed', 'policy', 'people', 'hour', 'overtime', 'equipment', 'tool', 'salary', 'wage', 'cheque', 'food', 'water', 'transport', 'housing', 'accommodation', 'health', 'safety', 'live', 'condition', 'management', 'race', 'racism', 'racist', 'discrimination', 'subsidy', 'allowance', 'train', 'white', 'promotion', 'work', 'condition', 'increase', 'unfair', 'poor', 'injustice', 'unjust']</t>
         </is>
       </c>
     </row>
@@ -756,11 +732,7 @@
           <t>['foreigner', 'somali', 'zimbabwe', 'xenophobic/a']</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>['foreigner', 'somali', 'zimbabwe', 'xenophobic/a']</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -782,11 +754,7 @@
           <t>['healthcare', 'nurse', 'hospital', 'clinic', 'doctor']</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>['healthcare', 'nurse', 'hospital', 'clinic', 'doctor']</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -808,11 +776,7 @@
           <t>['housing', 'land', 'stand']</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>['housing', 'land', 'stand']</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -834,11 +798,7 @@
           <t>['embassy', 'solidarily', 'people', 'war', 'situation']</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>['embassy', 'solidarily', 'people', 'war', 'situation']</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -866,7 +826,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['intimidate']</t>
+          <t>['suspect', 'criminal']</t>
         </is>
       </c>
     </row>
@@ -896,7 +856,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['court']</t>
+          <t>['attend', 'solidarity', 'gather', 'demonstrate', 'crowd', 'angry', 'support']</t>
         </is>
       </c>
     </row>
@@ -920,11 +880,7 @@
           <t>['labour', 'broker', 'labour', 'broker']</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>['labour', 'broker', 'labour', 'broker']</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -946,11 +902,7 @@
           <t>['licence', 'permit', 'permit', 'license']</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>['licence', 'permit', 'permit', 'license']</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -972,11 +924,7 @@
           <t>['mine', 'pollution', 'dirty', 'air', 'noise', 'crack', 'crack', 'fracking']</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>['mine', 'pollution', 'dirty', 'air', 'noise', 'crack', 'crack', 'fracking']</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -998,11 +946,7 @@
           <t>['arrive', 'come', 'fail', 'arrive', 'fail', 'come', 'respond', 'answer']</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>['arrive', 'come', 'fail', 'arrive', 'fail', 'come', 'respond', 'answer']</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1030,7 +974,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['municipality']</t>
+          <t>['bill', 'bill', 'rate', 'council', 'tax', 'corrupt', 'corruption', 'illegal', 'council', 'councillor', 'mayor', 'fail', 'wait', 'long', 'time', 'year', 'consultation', 'feedback', 'information', 'old', 'councillor', 'reinstate', 'reinstate', 'reappointed', 'put', 'back', 'toilet', 'sanitation', 'pipe', 'water']</t>
         </is>
       </c>
     </row>
@@ -1054,11 +998,7 @@
           <t>['government', 'national']</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>['government', 'national']</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1080,11 +1020,7 @@
           <t>['inspector', 'expire']</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>['inspector', 'expire']</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1106,11 +1042,7 @@
           <t>['library']</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>['library']</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1138,7 +1070,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['police', 'sap']</t>
+          <t>['crime', 'police', 'incident', 'drug', 'gang', 'arrest', 'suspect', 'wrongful', 'violence']</t>
         </is>
       </c>
     </row>
@@ -1162,11 +1094,7 @@
           <t>['disaster', 'flood', 'collapse', 'tornado', 'storm']</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>['disaster', 'flood', 'collapse', 'tornado', 'storm']</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1188,11 +1116,7 @@
           <t>['water', 'poor', 'road', 'quality', 'roads', 'quality', 'road', 'quality', 'road']</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>['water', 'poor', 'road', 'quality', 'roads', 'quality', 'road', 'quality', 'road']</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1214,11 +1138,7 @@
           <t>['service', 'delivery']</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>['service', 'delivery']</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1240,11 +1160,7 @@
           <t>['new', 'law', 'legislation', 'propose']</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>['new', 'law', 'legislation', 'propose']</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1266,11 +1182,7 @@
           <t>['part', 'incorporate', 'demarcation', 'locate', 'boundary']</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>['part', 'incorporate', 'demarcation', 'locate', 'boundary']</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1292,11 +1204,7 @@
           <t>['premier']</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>['premier']</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1318,11 +1226,7 @@
           <t>['grant']</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>['grant']</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1350,7 +1254,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['tribal', 'court', 'imbizo', 'kgotla', 'chief', 'kgosi', 'induna']</t>
+          <t>['problem', 'dispute', 'challenge', 'fight', 'protest', 'gather', 'demonstrate']</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1284,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['ratepayer', 'taxpayer', 'association']</t>
+          <t>['taxi']</t>
         </is>
       </c>
     </row>
@@ -1404,11 +1308,7 @@
           <t>['witchcraft', 'dead', 'muti']</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>['witchcraft', 'dead', 'muti']</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1436,7 +1336,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['empowerment', 'right']</t>
+          <t>['female', 'woman', 'woman']</t>
         </is>
       </c>
     </row>

--- a/DATA/Vocabularies/grievances.xlsx
+++ b/DATA/Vocabularies/grievances.xlsx
@@ -471,13 +471,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Capitalism', ' neoliberalism', ' privatisation', ' privatise']</t>
+          <t>['Capitalism', 'neoliberalism', 'privatisation', 'privatise']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['capitalism', 'neoliberalism', 'privatisation', 'privatise']</t>
+          <t>['capitalism,neoliberalism,privatisation,privatise']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -493,13 +493,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['Abuse', ' against xenophobia', '']</t>
+          <t>['Abuse', 'against xenophobia']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['abuse', 'xenophobia']</t>
+          <t>['abuse,against', 'xenophobia']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -515,13 +515,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['poverty', ' unemployment', ' jobs', '']</t>
+          <t>['poverty', 'unemployment', 'jobs']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['poverty', 'unemployment', 'job']</t>
+          <t>['poverty,unemployment,jobs']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -537,13 +537,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['contracts expire', ' project end', ' completed']</t>
+          <t>['contracts expire', 'project end', 'completed']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['contract', 'expire', 'project', 'end', 'complete']</t>
+          <t>['contract', 'expire,project', 'end,completed']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -559,13 +559,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['their rights', ' recognition', '']</t>
+          <t>['their rights', 'recognition']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['right', 'recognition']</t>
+          <t>['rights,recognition']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -581,13 +581,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['destroyed', ' evicted', ' demolished', ' relocated', ' removal']</t>
+          <t>['destroyed', 'evicted', 'demolished', 'relocated', 'removal']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['destroy', 'evict', 'demolished', 'relocated', 'removal']</t>
+          <t>['destroyed,evicted,demolished,relocated,removal']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -603,22 +603,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['School', ' university', ' students']</t>
+          <t>['School', 'university', 'students']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['fees', ' costs', ' teacher', ' permission', ' results', ' policy', ' allowed', ' shortage', ' not used', ' closed', ' residence']</t>
+          <t>['fees', 'costs', 'teacher', 'permission', 'results', 'policy', 'allowed', 'shortage', 'not used', 'closed', 'residence']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['school', 'university', 'student']</t>
+          <t>['school,university,students']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['fee', 'cost', 'teacher', 'permission', 'result', 'policy', 'allow', 'shortage', 'use', 'close', 'residence']</t>
+          <t>['fees,costs,teacher,permission,results,policy,allowed,shortage,not', 'used,closed,residence']</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['outcome', ' result', ' winner', ' unfair', ' cheat', ' wrong', ' councillor  ']</t>
+          <t>['outcome', 'result', 'winner', 'unfair', 'cheat', 'wrong', 'councillor  ']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['outcome', 'result', 'winner', 'unfair', 'cheat', 'wrong', 'councillor']</t>
+          <t>['outcome,result,winner,unfair,cheat,wrong,councillor']</t>
         </is>
       </c>
     </row>
@@ -663,22 +663,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['Electricity', ' Power', ' connections']</t>
+          <t>['Electricity', 'Power', 'connections']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[' cost', ' price', ' supply', ' cut', ' disconnect']</t>
+          <t>['cost', 'price', 'supply', 'cut', 'disconnect']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['electricity', 'power', 'connection']</t>
+          <t>['electricity,power,connections']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['cost', 'price', 'supply', 'cut', 'disconnect']</t>
+          <t>['cost,price,supply,cut,disconnect']</t>
         </is>
       </c>
     </row>
@@ -693,22 +693,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['Work', ' workers', ' Company', ' Employ', ' employer', ' employee', ' Labour', ' Industrial', ' Bosses', ' strike', ' management']</t>
+          <t>['Work', 'workers', 'Company', 'Employ', 'employer', 'employee', 'Labour', 'Industrial', 'Bosses', 'strike', 'management']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['corrupt', ' fired', ' dismissed', ' policy', ' other people', ' hours', ' overtime', ' equipment', ' tools', ' salary', ' wages', ' cheque', ' food', ' water', ' transport', ' housing', ' accommodation', ' health', ' safety', ' living conditions', ' management', ' race', ' racism', ' racist', ' discrimination', ' subsidy', ' allowance', ' training', ' white', ' promotion', ' working conditions', ' increase', ' unfair', ' poor', ' injustice', ' unjust']</t>
+          <t>['corrupt', 'fired', 'dismissed', 'policy', 'other people', 'hours', 'overtime', 'equipment', 'tools', 'salary', 'wages', 'cheque', 'food', 'water', 'transport', 'housing', 'accommodation', 'health', 'safety', 'living conditions', 'management', 'race', 'racism', 'racist', 'discrimination', 'subsidy', 'allowance', 'training', 'white', 'promotion', 'working conditions', 'increase', 'unfair', 'poor', 'injustice', 'unjust']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['work', 'worker', 'company', 'employ', 'employer', 'employee', 'labour', 'industrial', 'boss', 'strike', 'management']</t>
+          <t>['work,workers,company,employ,employer,employee,labour,industrial,bosses,strike,management']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['corrupt', 'fire', 'dismissed', 'policy', 'people', 'hour', 'overtime', 'equipment', 'tool', 'salary', 'wage', 'cheque', 'food', 'water', 'transport', 'housing', 'accommodation', 'health', 'safety', 'live', 'condition', 'management', 'race', 'racism', 'racist', 'discrimination', 'subsidy', 'allowance', 'train', 'white', 'promotion', 'work', 'condition', 'increase', 'unfair', 'poor', 'injustice', 'unjust']</t>
+          <t>['corrupt,fired,dismissed,policy,other', 'people,hours,overtime,equipment,tools,salary,wages,cheque,food,water,transport,housing,accommodation,health,safety,living', 'conditions,management,race,racism,racist,discrimination,subsidy,allowance,training,white,promotion,working', 'conditions,increase,unfair,poor,injustice,unjust']</t>
         </is>
       </c>
     </row>
@@ -723,13 +723,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['Foreigners', ' somali', ' Zimbabwe', ' xenophobic/a', '']</t>
+          <t>['Foreigners', 'somali', 'Zimbabwe', 'xenophobic', 'xenophobia']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['foreigner', 'somali', 'zimbabwe', 'xenophobic/a']</t>
+          <t>['foreigners,somali,zimbabwe,xenophobic,xenophobia']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -745,13 +745,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['healthcare', ' nurses', ' hospital', ' clinic', ' doctors']</t>
+          <t>['healthcare', 'nurses', 'hospital', 'clinic', 'doctors']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['healthcare', 'nurse', 'hospital', 'clinic', 'doctor']</t>
+          <t>['healthcare,nurses,hospital,clinic,doctors']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -767,13 +767,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['Housing', ' land', ' stands', '']</t>
+          <t>['Housing', 'land', 'stands']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['housing', 'land', 'stand']</t>
+          <t>['housing,land,stands']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -789,13 +789,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['Embassy', ' solidarily with the people of', ' war', ' the situation in', '']</t>
+          <t>['Embassy', 'solidarily with the people of', 'war', 'the situation in']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['embassy', 'solidarily', 'people', 'war', 'situation']</t>
+          <t>['embassy,solidarily', 'people', 'of,war,the', 'situation']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -816,7 +816,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['suspect', ' criminal']</t>
+          <t>['suspect', 'criminal']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['suspect', 'criminal']</t>
+          <t>['suspect,criminal']</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[' attend', ' solidarity', ' gather', ' demonstrate', ' crowd', ' angry', ' support']</t>
+          <t>['attend', 'solidarity', 'gather', 'demonstrate', 'crowd', 'angry', 'support']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['attend', 'solidarity', 'gather', 'demonstrate', 'crowd', 'angry', 'support']</t>
+          <t>['attend,solidarity,gather,demonstrate,crowd,angry,support']</t>
         </is>
       </c>
     </row>
@@ -871,13 +871,13 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['Labour broker', ' labour brokers']</t>
+          <t>['Labour broker', 'labour brokers']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['labour', 'broker', 'labour', 'broker']</t>
+          <t>['labour', 'broker,labour', 'broker']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -893,13 +893,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['Licence', ' permit', ' permits', ' licenses']</t>
+          <t>['Licence', 'permit', 'permits', 'licenses']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['licence', 'permit', 'permit', 'license']</t>
+          <t>['licence,permit,permits,licenses']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -915,13 +915,13 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['Mining', ' pollution', ' dirty', ' air', ' noise', ' cracking', ' cracked', ' fracking ']</t>
+          <t>['Mining', 'pollution', 'dirty', 'air', 'noise', 'cracking', 'cracked', 'fracking ']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['mine', 'pollution', 'dirty', 'air', 'noise', 'crack', 'crack', 'fracking']</t>
+          <t>['mining,pollution,dirty,air,noise,cracking,cracked,fracking']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -937,13 +937,13 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['Not arrive', ' not come', ' failed to arrive', ' failed to come', ' not respond', ' not answer']</t>
+          <t>['Not arrive', 'not come', 'failed to arrive', 'failed to come', 'not respond', 'not answer']</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['arrive', 'come', 'fail', 'arrive', 'fail', 'come', 'respond', 'answer']</t>
+          <t>['arrive,not', 'come,failed', 'arrive,failed', 'come,not', 'respond,not', 'answer']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -964,7 +964,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['Bills', ' billing', ' rates', ' council tax', ' corrupt', ' corruption', ' illegal', ' council', ' councillor', ' mayor', ' failed', ' waited', ' long time', ' years', ' consultation', ' feedback', ' information', ' old councillor', ' reinstated', ' reinstate', ' reappointed', ' put back', ' toilets', ' sanitation', ' pipes', ' water']</t>
+          <t>['Bills', 'billing', 'rates', 'council tax', 'corrupt', 'corruption', 'illegal', 'council', 'councillor', 'mayor', 'failed', 'waited', 'long time', 'years', 'consultation', 'feedback', 'information', 'old councillor', 'reinstated', 'reinstate', 'reappointed', 'put back', 'toilets', 'sanitation', 'pipes', 'water']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['bill', 'bill', 'rate', 'council', 'tax', 'corrupt', 'corruption', 'illegal', 'council', 'councillor', 'mayor', 'fail', 'wait', 'long', 'time', 'year', 'consultation', 'feedback', 'information', 'old', 'councillor', 'reinstate', 'reinstate', 'reappointed', 'put', 'back', 'toilet', 'sanitation', 'pipe', 'water']</t>
+          <t>['bills,billing,rates,council', 'tax,corrupt,corruption,illegal,council,councillor,mayor,failed,waited,long', 'time,years,consultation,feedback,information,old', 'councillor,reinstated,reinstate,reappointed,put', 'back,toilets,sanitation,pipes,water']</t>
         </is>
       </c>
     </row>
@@ -989,13 +989,13 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['Government', ' National']</t>
+          <t>['Government', 'National']</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['government', 'national']</t>
+          <t>['government,national']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1011,13 +1011,13 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['Inspectors', ' expired']</t>
+          <t>['Inspectors', 'expired']</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['inspector', 'expire']</t>
+          <t>['inspectors,expired']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1055,22 +1055,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['Police', ' SAPS']</t>
+          <t>['Police', 'SAPS']</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['crime', ' policing', ' incident', ' drugs', ' gangs', ' arrests', ' suspects', ' wrongful', ' violence']</t>
+          <t>['crime', 'policing', 'incident', 'drugs', 'gangs', 'arrests', 'suspects', 'wrongful', 'violence']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['police', 'sap']</t>
+          <t>['police,saps']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['crime', 'police', 'incident', 'drug', 'gang', 'arrest', 'suspect', 'wrongful', 'violence']</t>
+          <t>['crime,policing,incident,drugs,gangs,arrests,suspects,wrongful,violence']</t>
         </is>
       </c>
     </row>
@@ -1085,13 +1085,13 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['Disaster', ' flood', ' collapse', ' tornado', ' storm', '']</t>
+          <t>['Disaster', 'flood', 'collapse', 'tornado', 'storm']</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['disaster', 'flood', 'collapse', 'tornado', 'storm']</t>
+          <t>['disaster,flood,collapse,tornado,storm']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1107,13 +1107,13 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[' water', ' poor roads', ' quality of roads', ' quality of the roads', '  quality roads']</t>
+          <t>['water', 'poor roads', 'quality of roads', 'quality of the roads', 'quality roads']</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['water', 'poor', 'road', 'quality', 'roads', 'quality', 'road', 'quality', 'road']</t>
+          <t>['water,poor', 'roads,quality', 'roads,quality', 'roads,quality', 'road']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[' service delivery']</t>
+          <t>['service delivery']</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1151,13 +1151,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[' New law', ' legislation', ' proposed']</t>
+          <t>['New law', 'legislation', 'proposed']</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['new', 'law', 'legislation', 'propose']</t>
+          <t>['new', 'law,legislation,proposed']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1173,13 +1173,13 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[' to be part of', ' incorporated', ' demarcation', ' located', ' boundary']</t>
+          <t>['to be part of', 'incorporated', 'demarcation', 'located', 'boundary']</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['part', 'incorporate', 'demarcation', 'locate', 'boundary']</t>
+          <t>['part', 'of,incorporated,demarcation,located,boundary']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['Premier', '']</t>
+          <t>['Premier']</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[' grant']</t>
+          <t>['grant']</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1239,22 +1239,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[' Tribal court', ' imbizo', ' Kgotla', ' chief', ' kgosi', ' induna']</t>
+          <t>['Tribal court', 'imbizo', 'Kgotla', 'chief', 'kgosi', 'induna']</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['problem', ' dispute', ' challenge', ' fight', ' protest', ' gather', ' demonstrate']</t>
+          <t>['problem', 'dispute', 'challenge', 'fight', 'protest', 'gather', 'demonstrate']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['tribal', 'court', 'imbizo', 'kgotla', 'chief', 'kgosi', 'induna']</t>
+          <t>['tribal', 'court,imbizo,kgotla,chief,kgosi,induna']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['problem', 'dispute', 'challenge', 'fight', 'protest', 'gather', 'demonstrate']</t>
+          <t>['problem,dispute,challenge,fight,protest,gather,demonstrate']</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['Ratepayers', ' taxpayers', ' association']</t>
+          <t>['Ratepayers', 'taxpayers', 'association']</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['ratepayer', 'taxpayer', 'association']</t>
+          <t>['ratepayers,taxpayers,association']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1299,13 +1299,13 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['Witchcraft', ' from the dead', ' muti']</t>
+          <t>['Witchcraft', 'from the dead', 'muti']</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['witchcraft', 'dead', 'muti']</t>
+          <t>['witchcraft,from', 'dead,muti']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -1321,22 +1321,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[' Empowerment', ' Rights']</t>
+          <t>['Empowerment', 'Rights']</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['female', ' women', ' woman']</t>
+          <t>['female', 'women', 'woman']</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['empowerment', 'right']</t>
+          <t>['empowerment,rights']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['female', 'woman', 'woman']</t>
+          <t>['female,women,woman']</t>
         </is>
       </c>
     </row>

--- a/DATA/Vocabularies/grievances.xlsx
+++ b/DATA/Vocabularies/grievances.xlsx
@@ -471,13 +471,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Capitalism', 'neoliberalism', 'privatisation', 'privatise']</t>
+          <t>['Capitalism', 'neoliberalism', 'privatisation', 'privatise', 'privatize', 'privatization']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['capitalism,neoliberalism,privatisation,privatise']</t>
+          <t>['capitalism,neoliberalism,privatisation,privatise,privatize,privatization']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -515,13 +515,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['poverty', 'unemployment', 'jobs']</t>
+          <t>['poverty', 'unemployment', 'jobs', 'job']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['poverty,unemployment,jobs']</t>
+          <t>['poverty,unemployment,jobs,job']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -537,13 +537,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['contracts expire', 'project end', 'completed']</t>
+          <t>['contracts expire', 'project end', 'completed', 'contract end']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['contract', 'expire,project', 'end,completed']</t>
+          <t>['contract', 'expire,project', 'end,completed,contract', 'end']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -581,13 +581,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['destroyed', 'evicted', 'demolished', 'relocated', 'removal']</t>
+          <t>['destroyed', 'evicted', 'demolished', 'relocated', 'removal', 'evict']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['destroyed,evicted,demolished,relocated,removal']</t>
+          <t>['destroyed,evicted,demolished,relocated,removal,evict']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -603,22 +603,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['School', 'university', 'students']</t>
+          <t>['School', 'university', 'students', 'student', 'varsity', 'varsities', 'universities']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['fees', 'costs', 'teacher', 'permission', 'results', 'policy', 'allowed', 'shortage', 'not used', 'closed', 'residence']</t>
+          <t>['fees', 'costs', 'teacher', 'permission', 'results', 'policy', 'allowed', 'shortage', 'not used', 'closed', 'residence', 'riot', 'strike', 'protest']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['school,university,students']</t>
+          <t>['school,university,students,student,varsity,varsities,universities']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['fees,costs,teacher,permission,results,policy,allowed,shortage,not', 'used,closed,residence']</t>
+          <t>['fees,costs,teacher,permission,results,policy,allowed,shortage,not', 'used,closed,residence,riot,strike,protest']</t>
         </is>
       </c>
     </row>
@@ -663,22 +663,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['Electricity', 'Power', 'connections']</t>
+          <t>['Electricity', 'Power', 'connections', 'loadshedding', 'load shedding', 'eskom']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['cost', 'price', 'supply', 'cut', 'disconnect']</t>
+          <t>['cost', 'price', 'supply', 'cut', 'disconnect', 'loadshedding', 'load shedding', 'eskom', 'power']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['electricity,power,connections']</t>
+          <t>['electricity,power,connections,loadshedding,load', 'shedding,eskom']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['cost,price,supply,cut,disconnect']</t>
+          <t>['cost,price,supply,cut,disconnect,loadshedding,load', 'shedding,eskom,power']</t>
         </is>
       </c>
     </row>
@@ -693,22 +693,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['Work', 'workers', 'Company', 'Employ', 'employer', 'employee', 'Labour', 'Industrial', 'Bosses', 'strike', 'management']</t>
+          <t>['Work', 'workers', 'Company', 'Employ', 'employer', 'employee', 'Labour', 'Industrial', 'Bosses', 'strike', 'management', 'worker', 'boss']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['corrupt', 'fired', 'dismissed', 'policy', 'other people', 'hours', 'overtime', 'equipment', 'tools', 'salary', 'wages', 'cheque', 'food', 'water', 'transport', 'housing', 'accommodation', 'health', 'safety', 'living conditions', 'management', 'race', 'racism', 'racist', 'discrimination', 'subsidy', 'allowance', 'training', 'white', 'promotion', 'working conditions', 'increase', 'unfair', 'poor', 'injustice', 'unjust']</t>
+          <t>['corrupt', 'fired', 'dismissed', 'policy', 'other people', 'hours', 'overtime', 'equipment', 'tool', 'salary', 'wage', 'cheque', 'food', 'water', 'transport', 'housing', 'accommodation', 'health', 'safety', 'living conditions', 'management', 'race', 'racism', 'racist', 'discrimination', 'subsidy', 'allowance', 'training', 'white', 'promotion', 'working conditions', 'increase', 'unfair', 'poor', 'injustice', 'unjust']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['work,workers,company,employ,employer,employee,labour,industrial,bosses,strike,management']</t>
+          <t>['work,workers,company,employ,employer,employee,labour,industrial,bosses,strike,management,worker,boss']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['corrupt,fired,dismissed,policy,other', 'people,hours,overtime,equipment,tools,salary,wages,cheque,food,water,transport,housing,accommodation,health,safety,living', 'conditions,management,race,racism,racist,discrimination,subsidy,allowance,training,white,promotion,working', 'conditions,increase,unfair,poor,injustice,unjust']</t>
+          <t>['corrupt,fired,dismissed,policy,other', 'people,hours,overtime,equipment,tool,salary,wage,cheque,food,water,transport,housing,accommodation,health,safety,living', 'conditions,management,race,racism,racist,discrimination,subsidy,allowance,training,white,promotion,working', 'conditions,increase,unfair,poor,injustice,unjust']</t>
         </is>
       </c>
     </row>
@@ -723,13 +723,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['Foreigners', 'somali', 'Zimbabwe', 'xenophobic', 'xenophobia']</t>
+          <t>['Foreigners', 'somali', 'Zimbabwe', 'xenophobic', 'xenophobia', 'foreigner']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['foreigners,somali,zimbabwe,xenophobic,xenophobia']</t>
+          <t>['foreigners,somali,zimbabwe,xenophobic,xenophobia,foreigner']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -745,13 +745,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['healthcare', 'nurses', 'hospital', 'clinic', 'doctors']</t>
+          <t>['healthcare', 'nurses', 'hospital', 'clinic', 'doctors', 'nurse', 'doctor']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['healthcare,nurses,hospital,clinic,doctors']</t>
+          <t>['healthcare,nurses,hospital,clinic,doctors,nurse,doctor']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -893,13 +893,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['Licence', 'permit', 'permits', 'licenses']</t>
+          <t>['Licence', 'permit', 'permits', 'licenses', 'Licencing']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['licence,permit,permits,licenses']</t>
+          <t>['licence,permit,permits,licenses,licencing']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -915,13 +915,13 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['Mining', 'pollution', 'dirty', 'air', 'noise', 'cracking', 'cracked', 'fracking ']</t>
+          <t>['Mining', 'pollution', 'dirty', 'air', 'noise', 'cracking', 'cracked', 'fracking', 'miner']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['mining,pollution,dirty,air,noise,cracking,cracked,fracking']</t>
+          <t>['mining,pollution,dirty,air,noise,cracking,cracked,fracking,miner']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -959,22 +959,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['Municipality']</t>
+          <t>['Municipality', 'munucipalities']</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['Bills', 'billing', 'rates', 'council tax', 'corrupt', 'corruption', 'illegal', 'council', 'councillor', 'mayor', 'failed', 'waited', 'long time', 'years', 'consultation', 'feedback', 'information', 'old councillor', 'reinstated', 'reinstate', 'reappointed', 'put back', 'toilets', 'sanitation', 'pipes', 'water']</t>
+          <t>['Bill', 'billing', 'rates', 'council tax', 'corrupt', 'corruption', 'illegal', 'council', 'councillor', 'mayor', 'failed', 'waited', 'long time', 'years', 'consultation', 'feedback', 'information', 'old councillor', 'reinstated', 'reinstate', 'reappointed', 'put back', 'toilets', 'sanitation', 'pipes', 'water']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['municipality']</t>
+          <t>['municipality,munucipalities']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['bills,billing,rates,council', 'tax,corrupt,corruption,illegal,council,councillor,mayor,failed,waited,long', 'time,years,consultation,feedback,information,old', 'councillor,reinstated,reinstate,reappointed,put', 'back,toilets,sanitation,pipes,water']</t>
+          <t>['bill,billing,rates,council', 'tax,corrupt,corruption,illegal,council,councillor,mayor,failed,waited,long', 'time,years,consultation,feedback,information,old', 'councillor,reinstated,reinstate,reappointed,put', 'back,toilets,sanitation,pipes,water']</t>
         </is>
       </c>
     </row>
@@ -989,13 +989,13 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['Government', 'National']</t>
+          <t>['Government', 'National', 'govt']</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['government,national']</t>
+          <t>['government,national,govt']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1011,13 +1011,13 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['Inspectors', 'expired']</t>
+          <t>['Inspectors', 'expired', 'inspector', 'expiration']</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['inspectors,expired']</t>
+          <t>['inspectors,expired,inspector,expiration']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1033,13 +1033,13 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['Library']</t>
+          <t>['Library', 'libraries']</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['library']</t>
+          <t>['library,libraries']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['crime', 'policing', 'incident', 'drugs', 'gangs', 'arrests', 'suspects', 'wrongful', 'violence']</t>
+          <t>['crime', 'policing', 'incident', 'drug', 'gang', 'arrest', 'suspect', 'wrongful', 'violence']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['crime,policing,incident,drugs,gangs,arrests,suspects,wrongful,violence']</t>
+          <t>['crime,policing,incident,drug,gang,arrest,suspect,wrongful,violence']</t>
         </is>
       </c>
     </row>
@@ -1085,13 +1085,13 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['Disaster', 'flood', 'collapse', 'tornado', 'storm']</t>
+          <t>['Disaster', 'flood', 'collapse', 'tornado', 'storm', 'earthquake', 'sink hole', 'land slide', 'cyclone', 'hurricane']</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['disaster,flood,collapse,tornado,storm']</t>
+          <t>['disaster,flood,collapse,tornado,storm,earthquake,sink', 'hole,land', 'slide,cyclone,hurricane']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1107,13 +1107,13 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['water', 'poor roads', 'quality of roads', 'quality of the roads', 'quality roads']</t>
+          <t>['water', 'poor roads', 'quality of roads', 'quality of the roads', 'quality roads', 'pot hole', ' pot holes']</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['water,poor', 'roads,quality', 'roads,quality', 'roads,quality', 'road']</t>
+          <t>['water,poor', 'roads,quality', 'roads,quality', 'roads,quality', 'roads,pot', 'hole', 'pot', 'hole']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1151,13 +1151,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['New law', 'legislation', 'proposed']</t>
+          <t>['New law', 'legislation', 'proposed', 'amendment', 'amend']</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['new', 'law,legislation,proposed']</t>
+          <t>['new', 'law,legislation,proposed,amendment,amend']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['Ratepayers', 'taxpayers', 'association']</t>
+          <t>['Ratepayers', 'taxpayers', 'association', 'rate payer', ' tax payer', 'ratepayer', 'taxpayer']</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['ratepayers,taxpayers,association']</t>
+          <t>['ratepayers,taxpayers,association,rate', 'payer', 'tax', 'payer,ratepayer,taxpayer']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1299,13 +1299,13 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['Witchcraft', 'from the dead', 'muti']</t>
+          <t>['Witchcraft', 'from the dead', 'muti', 'witch']</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['witchcraft,from', 'dead,muti']</t>
+          <t>['witchcraft,from', 'dead,muti,witch']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['Empowerment', 'Rights']</t>
+          <t>['Empowerment', 'Rights', 'equality']</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['empowerment,rights']</t>
+          <t>['empowerment,rights,equality']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
